--- a/Nipasha_discountingtask.xlsx
+++ b/Nipasha_discountingtask.xlsx
@@ -38,13 +38,13 @@
     <t>key_resp.keys</t>
   </si>
   <si>
+    <t>l</t>
+  </si>
+  <si>
     <t>t</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>k (discounting parameter)</t>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -365,18 +365,16 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -398,20 +396,20 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2">
         <f>((B2/A2)-1)/C2</f>
-        <v>1.5827793605571326E-4</v>
+        <v>0.10256410256410257</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -425,115 +423,112 @@
         <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <f>((B3/A3)-1)/C3</f>
+        <f t="shared" ref="E3:E8" si="0">((B3/A3)-1)/C3</f>
         <v>1.0033864291985443E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <f>((B4/A4)-1)/C4</f>
-        <v>2.522357257509746E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.0564373897707229E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <f>((B5/A5)-1)/C5</f>
-        <v>6.0483870967741934E-3</v>
+        <f t="shared" si="0"/>
+        <v>0.24675324675324672</v>
+      </c>
+      <c r="G5">
+        <f>GEOMEAN(E5,E6)</f>
+        <v>3.8632358894448528E-2</v>
+      </c>
+      <c r="H5">
+        <f>SQRT(E5:E6)</f>
+        <v>0.49674263633520199</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <f>((B6/A6)-1)/C6</f>
-        <v>4.0564373897707229E-2</v>
-      </c>
-      <c r="G6">
-        <f>GEOMEAN(E6:E7)</f>
-        <v>6.4501539554440476E-2</v>
-      </c>
-      <c r="H6">
-        <f>SQRT(E6*E7)</f>
-        <v>6.4501539554440476E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.0483870967741934E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <f>((B7/A7)-1)/C7</f>
-        <v>0.10256410256410257</v>
+        <f t="shared" si="0"/>
+        <v>1.5827793605571326E-4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8">
-        <f>((B8/A8)-1)/C8</f>
-        <v>0.24675324675324672</v>
+        <f t="shared" si="0"/>
+        <v>2.522357257509746E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E8">
-    <sortCondition ref="E1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>